--- a/ANALISIS CAMPOS INDIVIDUALES/GRUPO_AMENAZAS.xlsx
+++ b/ANALISIS CAMPOS INDIVIDUALES/GRUPO_AMENAZAS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U355032\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Python 3.9\TFM\IBM\GRUPO DE AMENAZAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1B18CF-1200-4E4D-9595-AAF19D61F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7734EC-8B73-4B36-96B9-FD250113F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85CF371C-888D-443F-B9B2-F3B3BAE3A03E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{85CF371C-888D-443F-B9B2-F3B3BAE3A03E}"/>
   </bookViews>
   <sheets>
-    <sheet name="AÑO MODIFICACIÓN" sheetId="3" r:id="rId1"/>
-    <sheet name="AÑO PUBLICACIÓN" sheetId="4" r:id="rId2"/>
-    <sheet name="TIPO DE OBJETO STIX 2.1 " sheetId="5" r:id="rId3"/>
-    <sheet name="AÑO CREACION" sheetId="6" r:id="rId4"/>
+    <sheet name="modified" sheetId="3" r:id="rId1"/>
+    <sheet name="published" sheetId="4" r:id="rId2"/>
+    <sheet name="type" sheetId="5" r:id="rId3"/>
+    <sheet name="created" sheetId="6" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1055,7 +1055,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$12:$B$14</c:f>
+              <c:f>modified!$B$12:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1073,7 +1073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$12:$D$14</c:f>
+              <c:f>modified!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1130,7 +1130,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>modified!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1154,7 +1154,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>modified!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1505,7 +1505,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$B$12:$B$14</c:f>
+              <c:f>published!$B$12:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1523,7 +1523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$D$12:$D$14</c:f>
+              <c:f>published!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1580,7 +1580,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>published!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1604,7 +1604,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>published!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2066,7 +2066,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$B$12:$B$13</c:f>
+              <c:f>type!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2080,7 +2080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$C$12:$C$13</c:f>
+              <c:f>type!$C$12:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2347,7 +2347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACION'!$B$12:$B$15</c:f>
+              <c:f>created!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2368,7 +2368,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACION'!$D$12:$D$15</c:f>
+              <c:f>created!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2428,7 +2428,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACION'!$B$12:$B$15</c15:sqref>
+                          <c15:sqref>created!$B$12:$B$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2455,7 +2455,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACION'!$C$12:$C$15</c15:sqref>
+                          <c15:sqref>created!$C$12:$C$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5350,7 +5350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF6940-404A-46BC-B40F-A3FBD037EED3}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
@@ -5937,7 +5937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537341E-C91D-4C0D-900D-D8D019C945CA}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
